--- a/Data_science_outputs/200pop/output_results/output_analysis_2.xlsx
+++ b/Data_science_outputs/200pop/output_results/output_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3661.39539280461</v>
+        <v>2156.039195262611</v>
       </c>
       <c r="C3" t="n">
         <v>1591.575658263837</v>
       </c>
       <c r="D3" t="n">
-        <v>1661.614788043579</v>
+        <v>158.4280988661488</v>
       </c>
       <c r="E3" t="n">
         <v>411.1554377829373</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1940.633037068451</v>
+        <v>986.4419444683325</v>
       </c>
       <c r="C4" t="n">
         <v>871.2776878543009</v>
       </c>
       <c r="D4" t="n">
-        <v>1594.927564549692</v>
+        <v>220.1866249282304</v>
       </c>
       <c r="E4" t="n">
         <v>227.515686016579</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.001</v>
+        <v>45.003</v>
       </c>
       <c r="C5" t="n">
         <v>30.001</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1885.002</v>
+        <v>1420</v>
       </c>
       <c r="C6" t="n">
         <v>865.001</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3814.075999999999</v>
+        <v>2015.0275</v>
       </c>
       <c r="C7" t="n">
         <v>1426.003</v>
       </c>
       <c r="D7" t="n">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
         <v>410.001</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5144.004</v>
+        <v>2936.137249999998</v>
       </c>
       <c r="C8" t="n">
         <v>2266.127749999998</v>
       </c>
       <c r="D8" t="n">
-        <v>3360</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
         <v>605</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8334.149999999998</v>
+        <v>6321.075999999999</v>
       </c>
       <c r="C9" t="n">
         <v>4583.071</v>
       </c>
       <c r="D9" t="n">
-        <v>4580</v>
+        <v>1820</v>
       </c>
       <c r="E9" t="n">
         <v>1500</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1924429418.457</v>
+        <v>1133214201.03</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>68756068.43699998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4338851712381765</v>
+        <v>0.7358194888566573</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>873344732.5949999</v>
+        <v>83269808.76400003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.453820090370082</v>
+        <v>0.07348108476607029</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>216103298.099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1122947383917415</v>
+        <v>0.1906994263772724</v>
       </c>
     </row>
   </sheetData>
